--- a/medicine/Psychotrope/Champagne_Koch/Champagne_Koch.xlsx
+++ b/medicine/Psychotrope/Champagne_Koch/Champagne_Koch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Champagne Koch est une maison fondée à Avize en 1820 par Johann Charles Philipp Koch, dit Charles Koch, immigrant allemand originaire de Heidelberg.
 </t>
@@ -511,7 +523,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1830, Charles Koch s'associe avec Dinet-Peuvrel à Avize en créant une société en nom collectif Dinet-Peuvrel &amp; Koch, pour la production et le commerce de champagne.
 En 1858, cette association est dissoute et remplacée par la société Bumiller &amp; Koch, dirigée par Charles Koch fils ainé du fondateur, Eugène Koch son 3e fils et Frédéric Bumiller son neveu.
@@ -554,7 +568,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Histoire du Champagne Koch
  Portail des entreprises   Portail de la vigne et du vin   Portail de la Marne                   </t>
